--- a/src/Tests/Tests.DisplayAttributes.Net.verified.xlsx
+++ b/src/Tests/Tests.DisplayAttributes.Net.verified.xlsx
@@ -33,9 +33,6 @@
     <x:t>Is Available</x:t>
   </x:si>
   <x:si>
-    <x:t>1</x:t>
-  </x:si>
-  <x:si>
     <x:t>Laptop</x:t>
   </x:si>
   <x:si>
@@ -43,9 +40,6 @@
   </x:si>
   <x:si>
     <x:t>True</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2</x:t>
   </x:si>
   <x:si>
     <x:t>Book</x:t>
@@ -442,37 +436,37 @@
       </x:c>
     </x:row>
     <x:row r="2" spans="1:5">
-      <x:c r="A2" s="1" t="s">
+      <x:c r="A2" s="1">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="B2" s="1" t="s">
         <x:v>5</x:v>
-      </x:c>
-      <x:c r="B2" s="1" t="s">
-        <x:v>6</x:v>
       </x:c>
       <x:c r="C2" s="1">
         <x:v>999.99</x:v>
       </x:c>
       <x:c r="D2" s="1" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="E2" s="1" t="s">
         <x:v>7</x:v>
-      </x:c>
-      <x:c r="E2" s="1" t="s">
-        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:5">
-      <x:c r="A3" s="1" t="s">
-        <x:v>9</x:v>
+      <x:c r="A3" s="1">
+        <x:v>2</x:v>
       </x:c>
       <x:c r="B3" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="C3" s="1">
         <x:v>29.99</x:v>
       </x:c>
       <x:c r="D3" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="E3" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/src/Tests/Tests.DisplayAttributes.Net.verified.xlsx
+++ b/src/Tests/Tests.DisplayAttributes.Net.verified.xlsx
@@ -105,7 +105,7 @@
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellXfs>

--- a/src/Tests/Tests.DisplayAttributes.Net.verified.xlsx
+++ b/src/Tests/Tests.DisplayAttributes.Net.verified.xlsx
@@ -105,7 +105,7 @@
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellXfs>
